--- a/filmek.xlsx
+++ b/filmek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7662A-D063-4783-8259-C788FE02B344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E7F3E-E892-4FCF-BAC3-A78921490C70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>cím</t>
   </si>
@@ -43,9 +43,6 @@
     <t>zeneszerző</t>
   </si>
   <si>
-    <t>hossz</t>
-  </si>
-  <si>
     <t>besorolás</t>
   </si>
   <si>
@@ -74,6 +71,93 @@
   </si>
   <si>
     <t>Andrew Lesnie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elijah Wood, Ian McKallen, Orlando Bloom, Sean Bean, </t>
+  </si>
+  <si>
+    <t>Akció, Kaland, Dráma, Fantasy</t>
+  </si>
+  <si>
+    <t>Howard Shore</t>
+  </si>
+  <si>
+    <t>angol</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>A keresztapa</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t>Marlon Brando, Al Pacino, James Caan</t>
+  </si>
+  <si>
+    <t>Nino Rota</t>
+  </si>
+  <si>
+    <t>hossz(perc)</t>
+  </si>
+  <si>
+    <t>Gordon Willis</t>
+  </si>
+  <si>
+    <t>Paramount Pictures</t>
+  </si>
+  <si>
+    <t>Krimi, Dráma</t>
+  </si>
+  <si>
+    <t>Hetedik</t>
+  </si>
+  <si>
+    <t>Se7en</t>
+  </si>
+  <si>
+    <t>Morgan Freeman, Brad Pitt, Kevin Spacey, Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>David Fincher</t>
+  </si>
+  <si>
+    <t>New Line Cinema, warner</t>
+  </si>
+  <si>
+    <t>Darius Khondji</t>
+  </si>
+  <si>
+    <t>Krimi, Dráma, Rejtély</t>
+  </si>
+  <si>
+    <t>Blöff</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Guy Ritchie</t>
+  </si>
+  <si>
+    <t>Vígjáték, Krimi</t>
+  </si>
+  <si>
+    <t>Jason Statham, Brad Pitt, Stephen Graham</t>
+  </si>
+  <si>
+    <t>Tim Maurice-Jones</t>
+  </si>
+  <si>
+    <t>John Murphy</t>
+  </si>
+  <si>
+    <t>Columbia Pictures</t>
   </si>
 </sst>
 </file>
@@ -118,9 +202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -401,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +502,9 @@
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -424,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -448,36 +537,180 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
       <c r="C2">
         <v>2001</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>178</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>1972</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>175</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>1995</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>127</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>104</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/filmek.xlsx
+++ b/filmek.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E7F3E-E892-4FCF-BAC3-A78921490C70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF0AD09-7C46-4E15-879C-1CFE1765BF07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="1NF" sheetId="1" r:id="rId1"/>
+    <sheet name="2NF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="59">
   <si>
     <t>cím</t>
   </si>
@@ -73,9 +74,6 @@
     <t>Andrew Lesnie</t>
   </si>
   <si>
-    <t xml:space="preserve">Elijah Wood, Ian McKallen, Orlando Bloom, Sean Bean, </t>
-  </si>
-  <si>
     <t>Akció, Kaland, Dráma, Fantasy</t>
   </si>
   <si>
@@ -158,13 +156,55 @@
   </si>
   <si>
     <t>Columbia Pictures</t>
+  </si>
+  <si>
+    <t>Elijah Wood</t>
+  </si>
+  <si>
+    <t>Ian McKallen</t>
+  </si>
+  <si>
+    <t>Orlando Bloom</t>
+  </si>
+  <si>
+    <t>Sean Bean</t>
+  </si>
+  <si>
+    <t>Sean Astin</t>
+  </si>
+  <si>
+    <t>Viggo Mortensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>New Line Cinema</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>akció</t>
+  </si>
+  <si>
+    <t>kaland</t>
+  </si>
+  <si>
+    <t>dráma</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>KijatszottBenne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +221,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,16 +247,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -488,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +570,8 @@
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -537,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -559,7 +628,7 @@
       <c r="C2">
         <v>2001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
@@ -569,13 +638,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2">
         <v>178</v>
@@ -584,137 +653,814 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>1972</v>
+        <v>2001</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>1995</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>178</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>178</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>178</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>178</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>178</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>178</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>2001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>178</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>2001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>178</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>178</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>1972</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>175</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>1995</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>127</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I16" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5">
+      <c r="J16">
         <v>104</v>
       </c>
-      <c r="K5">
+      <c r="K16">
         <v>16</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B0C87F-AFF4-43C7-A651-E6776CD33497}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>178</v>
+      </c>
+      <c r="E2" s="6">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="D11:D21">
+    <sortCondition ref="D11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>